--- a/target/test-classes/TestData/Testdata1.xlsx
+++ b/target/test-classes/TestData/Testdata1.xlsx
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -435,11 +435,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
